--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23. nov.TidTipEkspertOdds12:30Over 8,5 målEndrevsStorvretaLoso1.75Loso</t>
+          <t>23. nov.TidTipEkspertOdds15:00Over 2,5 målÖrebrovsHammarby TFFLoso1.83Loso</t>
         </is>
       </c>
     </row>
@@ -465,19 +465,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23. nov.TidTipEkspertOdds13:00Over 2.5 målUtsiktens BKvsNorrbyLoso1.73Loso</t>
+          <t>23. nov.TidTipEkspertOdds16:00Over 5,5 målBorlängevsVäsby IK HKLoso1.70Loso</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23. nov.TidTipEkspertOdds15:00Over 2,5 målÖrebrovsHammarby TFFLoso1.83Loso</t>
+          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
+          <t>26. nov.TidTipEkspertOdds01:30Atletico MGvsFlamengoSerie AFrank Pilantra1.95Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,24 +448,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23. nov.TidTipEkspertOdds15:00Over 2,5 målÖrebrovsHammarby TFFLoso1.83Loso</t>
+          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23. nov.TidTipEkspertOdds16:00Over 5,5 målBorlängevsVäsby IK HKLoso1.70Loso</t>
+          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
+          <t>26. nov.TidTipEkspertOdds01:30Atletico MGvsFlamengoSerie AFrank Pilantra1.95Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -488,18 +488,6 @@
         </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>26. nov.TidTipEkspertOdds01:30Atletico MGvsFlamengoSerie AFrank Pilantra1.95Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
         <is>
           <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.55Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>28. nov.TidTipEkspertOdds00:30FluminensevsSao PauloSerie AFrank Pilantra1.57Frank Pilantra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.55Frank Pilantra</t>
         </is>
       </c>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,19 +453,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
+          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26. nov.TidTipEkspertOdds01:30Atletico MGvsFlamengoSerie AFrank Pilantra1.95Frank Pilantra</t>
+          <t>28. nov.TidTipEkspertOdds00:30FluminensevsSao PauloSerie AFrank Pilantra1.57Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>28. nov.TidTipEkspertOdds00:30FluminensevsSao PauloSerie AFrank Pilantra1.57Frank Pilantra</t>
+          <t>26. nov.TidTipEkspertOdds01:30Atletico MGvsFlamengoSerie AFrank Pilantra1.95Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -500,6 +500,18 @@
         </is>
       </c>
       <c r="B6" t="inlineStr">
+        <is>
+          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.55Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,31 +465,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
+          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28. nov.TidTipEkspertOdds00:30FluminensevsSao PauloSerie AFrank Pilantra1.57Frank Pilantra</t>
+          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26. nov.TidTipEkspertOdds01:30Atletico MGvsFlamengoSerie AFrank Pilantra1.95Frank Pilantra</t>
+          <t>29. nov.TidTipEkspertOdds22:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
+          <t>26. nov.TidTipEkspertOdds01:30Atletico MGvsFlamengoSerie AFrank Pilantra1.95Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -512,6 +512,30 @@
         </is>
       </c>
       <c r="B7" t="inlineStr">
+        <is>
+          <t>28. nov.TidTipEkspertOdds00:30FluminensevsSao PauloSerie AFrank Pilantra1.57Frank Pilantra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.55Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
+          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
+          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,19 +489,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds22:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26. nov.TidTipEkspertOdds01:30Atletico MGvsFlamengoSerie AFrank Pilantra1.95Frank Pilantra</t>
+          <t>26. nov.TidTipEkspertOdds19:00Over 5,5 målBorlängevsStrömsbro IFLoso1.85Loso</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
+          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.55Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.55Frank Pilantra</t>
+          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
+          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
+          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,31 +489,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26. nov.TidTipEkspertOdds19:00Over 5,5 målBorlängevsStrömsbro IFLoso1.85Loso</t>
+          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28. nov.TidTipEkspertOdds00:30FluminensevsSao PauloSerie AFrank Pilantra1.57Frank Pilantra</t>
+          <t>29. nov.TidTipEkspertOdds15:00Over 4.5 målIFK NorrköpingvsÖrgryteLoso4.70Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
+          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
+          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
+          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds15:15Lucas Pettersson scorerBrynäsvsHV 71Loso3.40Loso</t>
+          <t>29. nov.TidTipEkspertOdds15:00Over 4.5 målIFK NorrköpingvsÖrgryteLoso4.70Loso</t>
         </is>
       </c>
     </row>
@@ -525,19 +525,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds15:00Over 4.5 målIFK NorrköpingvsÖrgryteLoso4.70Loso</t>
+          <t>29. nov.TidTipEkspertOdds15:15Lucas Pettersson scorerBrynäsvsHV 71Loso3.40Loso</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
+          <t>29. nov.TidTipEkspertOdds18:00Isac Solberg scorerÖrebro HKvsRögleLoso8.00Loso</t>
         </is>
       </c>
     </row>
@@ -548,6 +548,18 @@
         </is>
       </c>
       <c r="B10" t="inlineStr">
+        <is>
+          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.55Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
+          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
+          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
+          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds15:00Over 4.5 målIFK NorrköpingvsÖrgryteLoso4.70Loso</t>
+          <t>30. nov.TidTipEkspertOdds15:00UppsalaUppsalavsLuleåLoso9.75Loso</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds15:15Lucas Pettersson scorerBrynäsvsHV 71Loso3.40Loso</t>
+          <t>30. nov.TidTipEkspertOdds15:00Uppsala +16,5UppsalavsLuleåLoso1.87Loso</t>
         </is>
       </c>
     </row>
@@ -537,31 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29. nov.TidTipEkspertOdds18:00Isac Solberg scorerÖrebro HKvsRögleLoso8.00Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.86Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>29. nov.TidTipEkspertOdds22:00PalmeirasvsFlamengoCopa Libertadores slutspilFrank Pilantra1.55Frank Pilantra</t>
+          <t>30. nov.TidTipEkspertOdds15:00Kalix -1,5Kalix UHCvsWings HC ArlandaLoso1.88Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
+          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>30. nov.TidTipEkspertOdds18:00CS CartaginésvsLD AlajuelenseAperturaBettingGuru2.05BettingGuru</t>
+          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
+          <t>4. dec.TidTipEkspertOdds01:30FlamengovsCearaSerie ABettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,43 +501,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
+          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30. nov.TidTipEkspertOdds15:00UppsalaUppsalavsLuleåLoso9.75Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>30. nov.TidTipEkspertOdds15:00Uppsala +16,5UppsalavsLuleåLoso1.87Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>30. nov.TidTipEkspertOdds15:00Kalix -1,5Kalix UHCvsWings HC ArlandaLoso1.88Loso</t>
+          <t>2. dec.TidTipEkspertOdds23:00Vasco da GamavsMirassolSerie ABettingGuru1.93BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
+          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds00:30AuroravsJorge WilstermannAperturaBettingGuru1.90BettingGuru</t>
+          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
+          <t>2. dec.TidTipEkspertOdds23:00Vasco da GamavsMirassolSerie ABettingGuru1.93BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1. dec.TidTipEkspertOdds19:00Brøndby IFvsFredericia3F SuperligaBettingGuru2.25BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2. dec.TidTipEkspertOdds23:00Vasco da GamavsMirassolSerie ABettingGuru1.93BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
+          <t>3. dec.TidTipEkspertOdds10:00Laos U22vsVietnam U22Southeast Asian Games Grp. BBettingGuru1.67BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2. dec.TidTipEkspertOdds00:00Audax ItalianovsCD NublensePrimera DivisionBettingGuru2.00BettingGuru</t>
+          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2. dec.TidTipEkspertOdds23:00Vasco da GamavsMirassolSerie ABettingGuru1.93BettingGuru</t>
+          <t>4. dec.TidTipEkspertOdds01:30FlamengovsCearaSerie ABettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds01:30FlamengovsCearaSerie ABettingGuru1.88BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
+          <t>3. dec.TidTipEkspertOdds10:00Laos U22vsVietnam U22Southeast Asian Games Grp. BBettingGuru1.81BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3. dec.TidTipEkspertOdds10:00Laos U22vsVietnam U22Southeast Asian Games Grp. BBettingGuru1.67BettingGuru</t>
+          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3. dec.TidTipEkspertOdds10:00Laos U22vsVietnam U22Southeast Asian Games Grp. BBettingGuru1.81BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds01:30FlamengovsCearaSerie ABettingGuru1.88BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4. dec.TidTipEkspertOdds20:00Always ReadyvsAuroraAperturaBettingGuru1.45BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6. dec.TidTipEkspertOdds15:15Skellefteå vinderSkellefteåvsVäxjöLoso1.75Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>6. dec.TidTipEkspertOdds15:00AIKAIKvsNorrköping DolphinsLoso2.92Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>6. dec.TidTipEkspertOdds15:15Skellefteå vinderSkellefteåvsVäxjöLoso1.75Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6. dec.TidTipEkspertOdds16:00LundIBK LundvsFBC SundsvallLoso1.92Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6. dec.TidTipEkspertOdds16:00VästeråsVästeråsvsLerumLoso2.80Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
+          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
+          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
         </is>
       </c>
     </row>
@@ -549,55 +549,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6. dec.TidTipEkspertOdds15:00AIKAIKvsNorrköping DolphinsLoso2.92Loso</t>
+          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6. dec.TidTipEkspertOdds15:15Skellefteå vinderSkellefteåvsVäxjöLoso1.75Loso</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6. dec.TidTipEkspertOdds16:00LundIBK LundvsFBC SundsvallLoso1.92Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>6. dec.TidTipEkspertOdds16:00VästeråsVästeråsvsLerumLoso2.80Loso</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
+          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>7. dec.TidTipEkspertOdds14:00Kevin Wennström scorerNybrovsVimmerby HCLoso6.10Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
+          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,67 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>7. dec.TidTipEkspertOdds17:00Connor MacEachern scorerÖstersunds IKvsMoraLoso3.50Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>7. dec.TidTipEkspertOdds16:30Liam Hawel scorerKalmar HCvsAlmtunaLoso4.50Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7. dec.TidTipEkspertOdds14:00Allan McShane scorerTroja/LjungbyvsOskarshamnLoso3.50Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>7. dec.TidTipEkspertOdds16:00Sundsvall -2,5SundsvallvsNorrtälje IKLoso1.83Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>7. dec.TidTipEkspertOdds14:00Kevin Wennström scorerNybrovsVimmerby HCLoso6.10Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7. dec.TidTipEkspertOdds16:00Tingsryds AIF -2.50 i fuldtid (AH)Tingsryds AIFvsGrums IKLoso1.93Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds14:00ViborgvsFC Midtjylland3F SuperligaBettingGuru1.82BettingGuru</t>
+          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
+          <t>9. dec.TidTipEkspertOdds00:00Nacional PotosivsABBAperturaBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -585,79 +585,43 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
+          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds17:00Connor MacEachern scorerÖstersunds IKvsMoraLoso3.50Loso</t>
+          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds16:30Liam Hawel scorerKalmar HCvsAlmtunaLoso4.50Loso</t>
+          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds14:00Allan McShane scorerTroja/LjungbyvsOskarshamnLoso3.50Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>7. dec.TidTipEkspertOdds16:00Sundsvall -2,5SundsvallvsNorrtälje IKLoso1.83Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>7. dec.TidTipEkspertOdds14:00Kevin Wennström scorerNybrovsVimmerby HCLoso6.10Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>7. dec.TidTipEkspertOdds16:00Tingsryds AIF -2.50 i fuldtid (AH)Tingsryds AIFvsGrums IKLoso1.93Loso</t>
+          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00VitoriavsSao PauloSerie ABettingGuru1.82BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
+          <t>9. dec.TidTipEkspertOdds00:00Nacional PotosivsABBAperturaBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru14.00BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru1.97BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds20:00InternacionalvsRed Bull BragantinoSerie ABettingGuru2.05BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7. dec.TidTipEkspertOdds22:00Deportes LimachevsLa SerenaPrimera DivisionBettingGuru3.65BettingGuru</t>
+          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,91 +537,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
+          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>9. dec.TidTipEkspertOdds00:00Nacional PotosivsABBAperturaBettingGuru1.70BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>7. dec.TidTipEkspertOdds23:00CS CartaginésvsAD Municipal LiberiaAperturaBettingGuru10.00BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7. dec.TidTipEkspertOdds20:00Botafogo RJvsFortalezaSerie ABettingGuru1.96BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
+          <t>8. dec.TidTipEkspertOdds19:04Luleå -13,5LuleåvsHögsboLoso1.87Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9. dec.TidTipEkspertOdds00:00Nacional PotosivsABBAperturaBettingGuru1.70BettingGuru</t>
+          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
+          <t>12. dec.TidTipEkspertOdds00:00Vasco da GamavsFluminensePokalBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,19 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8. dec.TidTipEkspertOdds19:04Luleå -13,5LuleåvsHögsboLoso1.87Loso</t>
+          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10. dec.TidTipEkspertOdds18:45VillarrealvsF.C. KøbenhavnChampions LeagueBettingGuru1.72BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,19 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10. dec.TidTipEkspertOdds21:00JuventusvsPafos FCChampions LeagueBettingGuru1.87BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12. dec.TidTipEkspertOdds00:00Vasco da GamavsFluminensePokalBettingGuru1.85BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,19 +513,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
+          <t>12. dec.TidTipEkspertOdds00:00Vasco da GamavsFluminensePokalBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds18:45VfB StuttgartvsMaccabi Tel AvivEuropa LeagueBettingGuru2.17BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds22:00CorinthiansvsCruzeiroPokalFrank Pilantra2.16Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds18:00FC NordsjællandvsFC MidtjyllandOddset PokalenBettingGuru19.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11. dec.TidTipEkspertOdds21:00ShelbournevsCrystal PalaceConference LeagueBettingGuru1.88BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds18:00FC NordsjællandvsFC MidtjyllandOddset PokalenBettingGuru19.00BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds18:00FC NordsjællandvsFC MidtjyllandOddset PokalenBettingGuru19.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -508,12 +508,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12. dec.TidTipEkspertOdds00:00Vasco da GamavsFluminensePokalBettingGuru1.85BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds15:00Östersund +24,5ÖstersundvsLuleåLoso1.83Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds18:00FC NordsjællandvsFC MidtjyllandOddset PokalenBettingGuru19.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds18:00FC NordsjællandvsFC MidtjyllandOddset PokalenBettingGuru19.00BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,29 +501,77 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds15:00Östersund +24,5ÖstersundvsLuleåLoso1.83Loso</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14. dec.TidTipEkspertOdds15:00Östersund +24,5ÖstersundvsLuleåLoso1.83Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14. dec.TidTipEkspertOdds15:00Uppsala -7,5UppsalavsNorrköping DolphinsLoso1.82Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14. dec.TidTipEkspertOdds16:00Tingsryd -3,5Tingsryds AIFvsJärfälla HCLoso1.85Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>14. dec.TidTipEkspertOdds22:00CorinthiansvsCruzeiroPokalFrank Pilantra2.16Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds18:00FC NordsjællandvsFC MidtjyllandOddset PokalenBettingGuru19.00BettingGuru</t>
+          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds15:00FiorentinavsVeronaSerie ABettingGuru2.23BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,65 +513,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>14. dec.TidTipEkspertOdds15:00Östersund +24,5ÖstersundvsLuleåLoso1.83Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>14. dec.TidTipEkspertOdds15:00Uppsala -7,5UppsalavsNorrköping DolphinsLoso1.82Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>14. dec.TidTipEkspertOdds16:00Tingsryd -3,5Tingsryds AIFvsJärfälla HCLoso1.85Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
         <is>
           <t>14. dec.TidTipEkspertOdds22:00CorinthiansvsCruzeiroPokalFrank Pilantra2.16Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
+          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,19 +513,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14. dec.TidTipEkspertOdds22:00CorinthiansvsCruzeiroPokalFrank Pilantra2.16Frank Pilantra</t>
+          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -526,6 +526,18 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>17. dec.TidTipEkspertOdds18:00Paris SGvsFlamengoFIFA Intercontinental CupFrank Pilantra1.72Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,17 +525,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16. dec.TidTipEkspertOdds19:04Köping -2,5UmeåvsKöping StarsLoso1.83Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>17. dec.TidTipEkspertOdds18:00Paris SGvsFlamengoFIFA Intercontinental CupFrank Pilantra1.72Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16. dec.TidTipEkspertOdds19:04Köping -2,5UmeåvsKöping StarsLoso1.83Loso</t>
+          <t>17. dec.TidTipEkspertOdds19:00AIK vinderAlmtunavsAIKLoso1.83Loso</t>
         </is>
       </c>
     </row>
@@ -550,6 +550,18 @@
       <c r="B10" t="inlineStr">
         <is>
           <t>17. dec.TidTipEkspertOdds18:00Paris SGvsFlamengoFIFA Intercontinental CupFrank Pilantra1.72Frank Pilantra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18. dec.TidTipEkspertOdds01:30CorinthiansvsVasco da GamaPokalFrank Pilantra1.83Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18. dec.TidTipEkspertOdds21:00AEK AthenvsUniversitatea CraiovaConference LeagueBettingGuru1.87BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18. dec.TidTipEkspertOdds21:00FC Lausanne-SportvsFiorentinaConference LeagueBettingGuru1.85BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -514,54 +514,6 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>17. dec.TidTipEkspertOdds19:00AIK vinderAlmtunavsAIKLoso1.83Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>17. dec.TidTipEkspertOdds18:00Paris SGvsFlamengoFIFA Intercontinental CupFrank Pilantra1.72Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>18. dec.TidTipEkspertOdds01:30CorinthiansvsVasco da GamaPokalFrank Pilantra1.83Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>19. dec.TidTipEkspertOdds18:30Visby Ladies +40,5Visby LadiesvsUppsalaLoso1.90Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
+          <t>20. dec.TidTipEkspertOdds16:00Manchester CityvsWest HamPremier LeagueBettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,19 +513,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>19. dec.TidTipEkspertOdds18:30Visby Ladies +40,5Visby LadiesvsUppsalaLoso1.90Loso</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
+          <t>20. dec.TidTipEkspertOdds16:00Manchester CityvsWest HamPremier LeagueBettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20. dec.TidTipEkspertOdds16:00Manchester CityvsWest HamPremier LeagueBettingGuru2.15BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20. dec.TidTipEkspertOdds16:00Sollentuna (Tureberg) under 80,5 pointOckelbovsSollentuna (Tureberg)Loso1.83Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20. dec.TidTipEkspertOdds15:00Alvik vinderNorrköping DolphinsvsAlvikLoso4.30Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20. dec.TidTipEkspertOdds15:00Alvik +9,5Norrköping DolphinsvsAlvikLoso1.90Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20. dec.TidTipEkspertOdds16:00Manchester CityvsWest HamPremier LeagueBettingGuru2.15BettingGuru</t>
+          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
+          <t>20. dec.TidTipEkspertOdds16:00Manchester CityvsWest HamPremier LeagueBettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20. dec.TidTipEkspertOdds16:00Sollentuna (Tureberg) under 80,5 pointOckelbovsSollentuna (Tureberg)Loso1.83Loso</t>
+          <t>20. dec.TidTipEkspertOdds17:00KFUM Blackeberg +9,5AIKvsKFUM BlackebergLoso1.83Loso</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20. dec.TidTipEkspertOdds15:00Alvik vinderNorrköping DolphinsvsAlvikLoso4.30Loso</t>
+          <t>20. dec.TidTipEkspertOdds16:00Sollentuna (Tureberg) under 80,5 pointOckelbovsSollentuna (Tureberg)Loso1.83Loso</t>
         </is>
       </c>
     </row>
@@ -560,6 +560,18 @@
         </is>
       </c>
       <c r="B11" t="inlineStr">
+        <is>
+          <t>20. dec.TidTipEkspertOdds15:00Alvik vinderNorrköping DolphinsvsAlvikLoso4.30Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>20. dec.TidTipEkspertOdds15:00Alvik +9,5Norrköping DolphinsvsAlvikLoso1.90Loso</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20. dec.TidTipEkspertOdds18:00Raon L EtapevsParis FCCoupe de FranceBettingGuru1.95BettingGuru</t>
+          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,67 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20. dec.TidTipEkspertOdds16:00Manchester CityvsWest HamPremier LeagueBettingGuru2.15BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>20. dec.TidTipEkspertOdds17:00KFUM Blackeberg +9,5AIKvsKFUM BlackebergLoso1.83Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>20. dec.TidTipEkspertOdds16:00Sollentuna (Tureberg) under 80,5 pointOckelbovsSollentuna (Tureberg)Loso1.83Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>20. dec.TidTipEkspertOdds15:00Alvik vinderNorrköping DolphinsvsAlvikLoso4.30Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>20. dec.TidTipEkspertOdds15:00Alvik +9,5Norrköping DolphinsvsAlvikLoso1.90Loso</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
+          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21. dec.TidTipEkspertOdds20:00AFCON – Topscorer E/WBettingGuru34.00BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22. dec.TidTipEkspertOdds21:00EgyptenvsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.79BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru1.50BettingGuru</t>
+          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
+          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.80BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.87BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds13:30GabonvsMozambiqueAfrica Cup of Nations Grp. FBettingGuru1.94BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds13:30Gruppe kvalifikation Ja/NejBettingGuru2.10BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,19 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24. dec.TidTipEkspertOdds21:00CamerounvsGabonAfrica Cup of Nations Grp. FBettingGuru1.80BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
+          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28. dec.TidTipEkspertOdds13:30GabonvsMozambiqueAfrica Cup of Nations Grp. FBettingGuru1.94BettingGuru</t>
+          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.80BettingGuru</t>
+          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.87BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds13:30GabonvsMozambiqueAfrica Cup of Nations Grp. FBettingGuru1.94BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26. dec.TidTipEkspertOdds15:15Örebro vinderÖrebro HKvsHV 71Loso1.90Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>26. dec.TidTipEkspertOdds18:00Brynäs vinderTimråvsBrynäsLoso2.40Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.80BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,55 +465,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26. dec.TidTipEkspertOdds13:30AngolavsZimbabweAfrica Cup of Nations Grp. BBettingGuru1.87BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds13:30GabonvsMozambiqueAfrica Cup of Nations Grp. FBettingGuru1.94BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
+          <t>27. dec.TidTipEkspertOdds19:04Under 163,5Södertälje KingsvsSloga UppsalaLoso1.83Loso</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>28. dec.TidTipEkspertOdds13:30GabonvsMozambiqueAfrica Cup of Nations Grp. FBettingGuru1.94BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>26. dec.TidTipEkspertOdds15:15Örebro vinderÖrebro HKvsHV 71Loso1.90Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>26. dec.TidTipEkspertOdds18:00Brynäs vinderTimråvsBrynäsLoso2.40Loso</t>
+          <t>27. dec.TidTipEkspertOdds19:04Umeå +22,5BC LuleåvsUmeåLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,19 +453,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28. dec.TidTipEkspertOdds12:30AC MilanvsVeronaSerie ABettingGuru2.25BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds13:30GabonvsMozambiqueAfrica Cup of Nations Grp. FBettingGuru1.94BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28. dec.TidTipEkspertOdds13:30GabonvsMozambiqueAfrica Cup of Nations Grp. FBettingGuru1.94BettingGuru</t>
+          <t>28. dec.TidTipEkspertOdds16:00Over 6.5 målMariestad BoIS HCvsGrums IKLoso2.28Loso</t>
         </is>
       </c>
     </row>
@@ -477,19 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>27. dec.TidTipEkspertOdds19:04Under 163,5Södertälje KingsvsSloga UppsalaLoso1.83Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>27. dec.TidTipEkspertOdds19:04Umeå +22,5BC LuleåvsUmeåLoso1.85Loso</t>
+          <t>28. dec.TidTipEkspertOdds16:00Västerviks IK vinderVästerviks IKvsKarlskrona HKLoso6.15Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,31 +453,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28. dec.TidTipEkspertOdds13:30GabonvsMozambiqueAfrica Cup of Nations Grp. FBettingGuru1.94BettingGuru</t>
+          <t>1. jan.TidTipEkspertOdds16:00PrestonvsSheffield W.ChampionshipBettingGuru1.96BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28. dec.TidTipEkspertOdds16:00Over 6.5 målMariestad BoIS HCvsGrums IKLoso2.28Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>28. dec.TidTipEkspertOdds16:00Västerviks IK vinderVästerviks IKvsKarlskrona HKLoso6.15Loso</t>
+          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,30 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>29. dec.TidTipEkspertOdds20:00ComorernevsMaliAfrica Cup of Nations Grp. ABettingGuru1.88BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>31. dec.TidTipEkspertOdds17:00SudanvsBurkina FasoAfrica Cup of Nations Grp. EBettingGuru3.90BettingGuru</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29. dec.TidTipEkspertOdds20:00ComorernevsMaliAfrica Cup of Nations Grp. ABettingGuru1.88BettingGuru</t>
+          <t>31. dec.TidTipEkspertOdds17:00SudanvsBurkina FasoAfrica Cup of Nations Grp. EBettingGuru3.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31. dec.TidTipEkspertOdds17:00SudanvsBurkina FasoAfrica Cup of Nations Grp. EBettingGuru3.90BettingGuru</t>
+          <t>29. dec.TidTipEkspertOdds20:00ComorernevsMaliAfrica Cup of Nations Grp. ABettingGuru1.88BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>29. dec.TidTipEkspertOdds19:00Adam Hesselvall scorerSödertäljevsOskarshamnLoso9.00Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,24 +484,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29. dec.TidTipEkspertOdds20:00ComorernevsMaliAfrica Cup of Nations Grp. ABettingGuru1.88BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>29. dec.TidTipEkspertOdds19:00Adam Hesselvall scorerSödertäljevsOskarshamnLoso9.00Loso</t>
+          <t>30. dec.TidTipEkspertOdds19:04Uppsala -12,5UppsalavsHögsboLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. jan.TidTipEkspertOdds16:00PrestonvsSheffield W.ChampionshipBettingGuru1.96BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
+          <t>31. dec.TidTipEkspertOdds17:00SudanvsBurkina FasoAfrica Cup of Nations Grp. EBettingGuru3.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31. dec.TidTipEkspertOdds17:00SudanvsBurkina FasoAfrica Cup of Nations Grp. EBettingGuru3.90BettingGuru</t>
+          <t>1. jan.TidTipEkspertOdds16:00PrestonvsSheffield W.ChampionshipBettingGuru1.96BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>30. dec.TidTipEkspertOdds19:04Umeå +20,5UmeåvsNorrköping DolphinsLoso1.85Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>30. dec.TidTipEkspertOdds19:04Uppsala -12,5UppsalavsHögsboLoso1.85Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>30. dec.TidTipEkspertOdds19:04Borås -5,5BoråsvsBC LuleåLoso1.88Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30. dec.TidTipEkspertOdds19:00Betbuilder: Hanviken vinder + Over 5,5 målHanvikens SKvsNyköpingLoso1.82Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30. dec.TidTipEkspertOdds19:04Köping Stars vinderKöping StarsvsSödertälje KingsLoso3.25Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,79 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31. dec.TidTipEkspertOdds17:00SudanvsBurkina FasoAfrica Cup of Nations Grp. EBettingGuru3.90BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1. jan.TidTipEkspertOdds16:00PrestonvsSheffield W.ChampionshipBettingGuru1.96BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>30. dec.TidTipEkspertOdds19:04Umeå +20,5UmeåvsNorrköping DolphinsLoso1.85Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>30. dec.TidTipEkspertOdds19:04Uppsala -12,5UppsalavsHögsboLoso1.85Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>30. dec.TidTipEkspertOdds19:04Borås -5,5BoråsvsBC LuleåLoso1.88Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>30. dec.TidTipEkspertOdds19:00Betbuilder: Hanviken vinder + Over 5,5 målHanvikens SKvsNyköpingLoso1.82Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>30. dec.TidTipEkspertOdds19:04Köping Stars vinderKöping StarsvsSödertälje KingsLoso3.25Loso</t>
+          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
+          <t>4. jan.TidTipEkspertOdds16:00Salford CityvsShrewsburyLeague TwoBettingGuru2.16BettingGuru</t>
         </is>
       </c>
     </row>
@@ -466,6 +466,42 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2. jan.TidTipEkspertOdds19:00Herman Träff scorer 2 eller flere målOskarshamnvsNybroLoso18.00Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2. jan.TidTipEkspertOdds19:00Over 8.5 målKalmar HCvsTroja/LjungbyLoso5.60Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,24 +484,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2. jan.TidTipEkspertOdds19:00Herman Träff scorer 2 eller flere målOskarshamnvsNybroLoso18.00Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2. jan.TidTipEkspertOdds19:00Over 8.5 målKalmar HCvsTroja/LjungbyLoso5.60Loso</t>
+          <t>3. jan.TidTipEkspertOdds18:45Corinthians U20-Trindade U20BettingGuru2.33BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
+          <t>4. jan.TidTipEkspertOdds00:15America MG U20-Noroeste U20BettingGuru2.02BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3. jan.TidTipEkspertOdds18:45Corinthians U20-Trindade U20BettingGuru2.33BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4. jan.TidTipEkspertOdds16:00Salford CityvsShrewsburyLeague TwoBettingGuru2.16BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4. jan.TidTipEkspertOdds00:15America MG U20-Noroeste U20BettingGuru2.02BettingGuru</t>
+          <t>4. jan.TidTipEkspertOdds16:00Salford CityvsShrewsburyLeague TwoBettingGuru2.16BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
+          <t>4. jan.TidTipEkspertOdds00:15America MG U20-Noroeste U20BettingGuru2.02BettingGuru</t>
         </is>
       </c>
     </row>
@@ -488,6 +488,18 @@
         </is>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t>4. jan.TidTipEkspertOdds13:00BirminghamvsCoventryChampionshipBettingGuru2.02BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4. jan.TidTipEkspertOdds16:00Salford CityvsShrewsburyLeague TwoBettingGuru2.16BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4. jan.TidTipEkspertOdds00:15America MG U20-Noroeste U20BettingGuru2.02BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,19 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4. jan.TidTipEkspertOdds13:00BirminghamvsCoventryChampionshipBettingGuru2.02BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds18:00LeccevsRomaSerie ABettingGuru1.93BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds18:00LeccevsRomaSerie ABettingGuru1.93BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,31 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds18:00LeccevsRomaSerie ABettingGuru1.93BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5. jan.TidTipEkspertOdds19:04Köping StarsHögsbovsKöping StarsLoso1.80Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5. jan.TidTipEkspertOdds19:04Over 184,5JämtlandvsUmeåLoso1.83Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
+          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5. jan.TidTipEkspertOdds19:04Köping StarsHögsbovsKöping StarsLoso1.80Loso</t>
+          <t>6. jan.TidTipEkspertOdds12:30Endre -2,5EndrevsKarlstadLoso2.10Loso</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5. jan.TidTipEkspertOdds19:04Over 184,5JämtlandvsUmeåLoso1.83Loso</t>
+          <t>6. jan.TidTipEkspertOdds18:00Over 7,5 målLeksands IFvsSkellefteåLoso5.50Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,67 +453,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds12:30Vietnam U23vsJordan U23A23BettingGuru1.84BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6. jan.TidTipEkspertOdds18:00LeccevsRomaSerie ABettingGuru1.93BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6. jan.TidTipEkspertOdds17:00AlgerietvsDR CongoAfrica Cup of Nations finaleBettingGuru2.15BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6. jan.TidTipEkspertOdds12:30Endre -2,5EndrevsKarlstadLoso2.10Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6. jan.TidTipEkspertOdds18:00Over 7,5 målLeksands IFvsSkellefteåLoso5.50Loso</t>
+          <t>7. jan.TidTipEkspertOdds19:00Troja/Ljungby (ordinær tid)VästeråsvsTroja/LjungbyLoso3.35Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>7. jan.TidTipEkspertOdds19:00Kalmar -2,5Kalmar HCvsAlmtunaLoso2.20Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>7. jan.TidTipEkspertOdds19:00Troja/Ljungby (ordinær tid)VästeråsvsTroja/LjungbyLoso3.35Loso</t>
         </is>
       </c>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,31 +453,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds00:30Mirassol U20-Sport Recife U20BettingGuru3.40BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7. jan.TidTipEkspertOdds19:00Kalmar -2,5Kalmar HCvsAlmtunaLoso2.20Loso</t>
+          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7. jan.TidTipEkspertOdds19:00Troja/Ljungby (ordinær tid)VästeråsvsTroja/LjungbyLoso3.35Loso</t>
+          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds00:30Mirassol U20-Sport Recife U20BettingGuru3.40BettingGuru</t>
+          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
+          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds00:30Mirassol U20-Sport Recife U20BettingGuru3.40BettingGuru</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,18 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8. jan.TidTipEkspertOdds19:04Borås -21,5BoråsvsSloga UppsalaLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds00:30Mirassol U20-Sport Recife U20BettingGuru3.40BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,19 +489,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds00:30Mirassol U20-Sport Recife U20BettingGuru3.40BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8. jan.TidTipEkspertOdds19:04Borås -21,5BoråsvsSloga UppsalaLoso1.85Loso</t>
+          <t>9. jan.TidTipEkspertOdds17:00Botafogo SP U20 – Tuna Luso U20BettingGuru2.12BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
+          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds17:00Botafogo SP U20 – Tuna Luso U20BettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds00:30Mirassol U20-Sport Recife U20BettingGuru3.40BettingGuru</t>
+          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds17:00Botafogo SP U20 – Tuna Luso U20BettingGuru2.12BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,19 +513,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds19:04Under 161,5 pointSödertälje KingsvsUppsalaLoso1.83Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9. jan.TidTipEkspertOdds19:04Norrköping Dolphins -6,5Norrköping DolphinsvsBC LuleåLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds17:00Botafogo SP U20 – Tuna Luso U20BettingGuru2.12BettingGuru</t>
+          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
+          <t>9. jan.TidTipEkspertOdds19:04Over 187,5 pointKöping StarsvsJämtlandLoso1.85Loso</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds19:04Under 161,5 pointSödertälje KingsvsUppsalaLoso1.83Loso</t>
+          <t>9. jan.TidTipEkspertOdds19:04Norrköping Dolphins -6,5Norrköping DolphinsvsBC LuleåLoso1.85Loso</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds19:04Norrköping Dolphins -6,5Norrköping DolphinsvsBC LuleåLoso1.85Loso</t>
+          <t>9. jan.TidTipEkspertOdds19:04Under 161,5 pointSödertälje KingsvsUppsalaLoso1.83Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,43 +501,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds20:30Milton Keynes DonsvsOxfordFA CupBettingGuru1.82BettingGuru</t>
+          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9. jan.TidTipEkspertOdds19:04Over 187,5 pointKöping StarsvsJämtlandLoso1.85Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>9. jan.TidTipEkspertOdds19:04Norrköping Dolphins -6,5Norrköping DolphinsvsBC LuleåLoso1.85Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>9. jan.TidTipEkspertOdds19:04Under 161,5 pointSödertälje KingsvsUppsalaLoso1.83Loso</t>
+          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru3.60BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>10. jan.TidTipEkspertOdds18:00Alvik vinderAlvikvsSollentunaLoso2.40Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10. jan.TidTipEkspertOdds17:00AIK vinderAIKvsHuddingeLoso1.95Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,55 +513,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10. jan.TidTipEkspertOdds16:00StokevsCoventryFA CupBettingGuru1.75BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10. jan.TidTipEkspertOdds18:45GrimsbyvsWeston Super MareFA CupBettingGuru2.00BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>10. jan.TidTipEkspertOdds18:00Alvik vinderAlvikvsSollentunaLoso2.40Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>10. jan.TidTipEkspertOdds17:00AIK vinderAIKvsHuddingeLoso1.95Loso</t>
+          <t>11. jan.TidTipEkspertOdds13:00Malbas -5,5MalbasvsOckelboLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru3.60BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru3.60BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
@@ -526,6 +526,18 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>11. jan.TidTipEkspertOdds13:00Malbas -5,5MalbasvsOckelboLoso1.85Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11. jan.TidTipEkspertOdds12:30Endre vinder (ordinær tid)EndrevsVästerås RönnbyLoso4.50Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru3.60BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru3.60BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds13:00Malbas -5,5MalbasvsOckelboLoso1.85Loso</t>
+          <t>11. jan.TidTipEkspertOdds16:00Tyringe Hockey vinderTyringe HockeyvsMariestad BoIS HCLoso5.45Loso</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds12:30Endre vinder (ordinær tid)EndrevsVästerås RönnbyLoso4.50Loso</t>
+          <t>11. jan.TidTipEkspertOdds16:00Malbas -25,5MalbasvsVisby LadiesLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru3.00BettingGuru</t>
+          <t>15. jan.TidTipEkspertOdds01:30CaxiasvsAvenidaGauchoBettingGuru1.84BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru3.60BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds15:00PortsmouthvsArsenalFA CupBettingGuru13.00BettingGuru</t>
+          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru3.60BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,31 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11. jan.TidTipEkspertOdds16:00Tyringe Hockey vinderTyringe HockeyvsMariestad BoIS HCLoso5.45Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>11. jan.TidTipEkspertOdds16:00Malbas -25,5MalbasvsVisby LadiesLoso1.85Loso</t>
+          <t>15. jan.TidTipEkspertOdds01:00Ponte PretavsVelo ClubePaulista A1BettingGuru1.78BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15. jan.TidTipEkspertOdds01:30CaxiasvsAvenidaGauchoBettingGuru1.84BettingGuru</t>
+          <t>15. jan.TidTipEkspertOdds01:00Ponte PretavsVelo ClubePaulista A1BettingGuru1.78BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru1.75BettingGuru</t>
+          <t>12. jan.TidTipEkspertOdds23:00Guanabara City U20 – Tuna Luso U20BettingGuru2.02BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,43 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. jan.TidTipEkspertOdds22:00FlamengovsPortuguesa RJCarioca 1. Div. Taca GuanabaraBettingGuru2.12BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>11. jan.TidTipEkspertOdds20:00Sao LuizvsCaxiasGauchoBettingGuru2.20BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>11. jan.TidTipEkspertOdds20:00CorinthiansvsPonte PretaPaulista A1BettingGuru3.60BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>15. jan.TidTipEkspertOdds01:00Ponte PretavsVelo ClubePaulista A1BettingGuru1.78BettingGuru</t>
+          <t>15. jan.TidTipEkspertOdds01:30CaxiasvsAvenidaGauchoBettingGuru1.84BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12. jan.TidTipEkspertOdds23:00Guanabara City U20 – Tuna Luso U20BettingGuru2.02BettingGuru</t>
+          <t>15. jan.TidTipEkspertOdds18:30VeronavsBolognaSerie ABettingGuru2.03BettingGuru</t>
         </is>
       </c>
     </row>
@@ -478,6 +478,30 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>15. jan.TidTipEkspertOdds01:30CaxiasvsAvenidaGauchoBettingGuru1.84BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12. jan.TidTipEkspertOdds23:00Guanabara City U20 – Tuna Luso U20BettingGuru2.02BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15. jan.TidTipEkspertOdds01:00Ponte PretavsVelo ClubePaulista A1BettingGuru1.78BettingGuru</t>
+          <t>15. jan.TidTipEkspertOdds18:30VeronavsBolognaSerie ABettingGuru2.03BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15. jan.TidTipEkspertOdds18:30VeronavsBolognaSerie ABettingGuru2.03BettingGuru</t>
+          <t>15. jan.TidTipEkspertOdds01:30CaxiasvsAvenidaGauchoBettingGuru1.84BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,19 +477,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15. jan.TidTipEkspertOdds01:30CaxiasvsAvenidaGauchoBettingGuru1.84BettingGuru</t>
+          <t>15. jan.TidTipEkspertOdds01:00Ponte PretavsVelo ClubePaulista A1BettingGuru1.78BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12. jan.TidTipEkspertOdds23:00Guanabara City U20 – Tuna Luso U20BettingGuru2.02BettingGuru</t>
+          <t>14. jan.TidTipEkspertOdds19:00Nybro vinder (ordinær tid)NybrovsTroja/LjungbyLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,46 +460,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15. jan.TidTipEkspertOdds01:30CaxiasvsAvenidaGauchoBettingGuru1.84BettingGuru</t>
+          <t>15. jan.TidTipEkspertOdds19:04Jämtland først til 55 point i 1. halvlegJämtlandvsUppsalaLoso4.25Loso</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>15. jan.TidTipEkspertOdds01:00Ponte PretavsVelo ClubePaulista A1BettingGuru1.78BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>14. jan.TidTipEkspertOdds19:00Nybro vinder (ordinær tid)NybrovsTroja/LjungbyLoso1.85Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,29 +453,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15. jan.TidTipEkspertOdds18:30VeronavsBolognaSerie ABettingGuru2.03BettingGuru</t>
+          <t>17. jan.TidTipEkspertOdds16:00ChelseavsBrentfordPremier LeagueBettingGuru3.20BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>15. jan.TidTipEkspertOdds19:04Jämtland først til 55 point i 1. halvlegJämtlandvsUppsalaLoso4.25Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,17 +453,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17. jan.TidTipEkspertOdds16:00ChelseavsBrentfordPremier LeagueBettingGuru3.20BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>17. jan.TidTipEkspertOdds16:00ChelseavsBrentfordPremier LeagueBettingGuru3.20BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17. jan.TidTipEkspertOdds16:00SunderlandvsCrystal PalacePremier LeagueBettingGuru9.05BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
+          <t>17. jan.TidTipEkspertOdds16:00ChelseavsBrentfordPremier LeagueBettingGuru3.20BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17. jan.TidTipEkspertOdds16:00ChelseavsBrentfordPremier LeagueBettingGuru3.20BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
         </is>
       </c>
     </row>
@@ -484,10 +484,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18. jan.TidTipEkspertOdds15:00WolverhamptonvsNewcastlePremier LeagueBettingGuru1.73BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18. jan.TidTipEkspertOdds22:00Atletico MGvsTombense FCMineiroBettingGuru2.00BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17. jan.TidTipEkspertOdds16:00ChelseavsBrentfordPremier LeagueBettingGuru3.20BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
+          <t>17. jan.TidTipEkspertOdds16:00ChelseavsBrentfordPremier LeagueBettingGuru3.20BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17. jan.TidTipEkspertOdds16:00SunderlandvsCrystal PalacePremier LeagueBettingGuru9.05BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds15:00WolverhamptonvsNewcastlePremier LeagueBettingGuru1.73BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds15:00WolverhamptonvsNewcastlePremier LeagueBettingGuru1.73BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds22:00Atletico MGvsTombense FCMineiroBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds22:00Atletico MGvsTombense FCMineiroBettingGuru2.00BettingGuru</t>
+          <t>17. jan.TidTipEkspertOdds16:00SunderlandvsCrystal PalacePremier LeagueBettingGuru9.05BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17. jan.TidTipEkspertOdds18:00David Tomasek scorer 2+ målFärjestadvsBrynäsLoso16.00Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17. jan.TidTipEkspertOdds18:00Over 5.5 mål i fuldtidFärjestadvsBrynäsLoso2.10Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds22:00Atletico MGvsTombense FCMineiroBettingGuru2.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17. jan.TidTipEkspertOdds16:00ChelseavsBrentfordPremier LeagueBettingGuru3.20BettingGuru</t>
+          <t>24. jan.TidTipEkspertOdds20:00Deportivo PereiravsFortaleza FCPrimera A AperturaBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds15:00WolverhamptonvsNewcastlePremier LeagueBettingGuru1.73BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,53 +489,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds22:00Atletico MGvsTombense FCMineiroBettingGuru2.00BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds15:00WolverhamptonvsNewcastlePremier LeagueBettingGuru1.73BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>17. jan.TidTipEkspertOdds16:00SunderlandvsCrystal PalacePremier LeagueBettingGuru9.05BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>17. jan.TidTipEkspertOdds18:00David Tomasek scorer 2+ målFärjestadvsBrynäsLoso16.00Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>17. jan.TidTipEkspertOdds18:00Over 5.5 mål i fuldtidFärjestadvsBrynäsLoso2.10Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>24. jan.TidTipEkspertOdds20:00Deportivo PereiravsFortaleza FCPrimera A AperturaBettingGuru2.10BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds15:00WolverhamptonvsNewcastlePremier LeagueBettingGuru1.73BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
+          <t>24. jan.TidTipEkspertOdds20:00Deportivo PereiravsFortaleza FCPrimera A AperturaBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,17 +489,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds15:00WolverhamptonvsNewcastlePremier LeagueBettingGuru1.73BettingGuru</t>
+          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18. jan.TidTipEkspertOdds13:00RIG Luleå +30,5RIG LuleåvsEOS LundLoso1.85Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18. jan.TidTipEkspertOdds14:00AIK vinderAIKvsMalbasLoso2.62Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds13:00RIG Luleå +30,5RIG LuleåvsEOS LundLoso1.85Loso</t>
+          <t>18. jan.TidTipEkspertOdds16:00Visby/Roma HK -2.50 i fuldtid (AH)Visby/Roma HKvsTyringe HockeyLoso1.76Loso</t>
         </is>
       </c>
     </row>
@@ -520,10 +520,46 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18. jan.TidTipEkspertOdds16:00Nyköping vinder (ordinær tid)NyköpingvsKungälvs IKLoso2.60Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18. jan.TidTipEkspertOdds13:00RIG Luleå +30,5RIG LuleåvsEOS LundLoso1.85Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18. jan.TidTipEkspertOdds15:00AIK vinderNorrköping DolphinsvsAIKLoso2.21Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,113 +453,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds22:00Atletico MGvsTombense FCMineiroBettingGuru2.00BettingGuru</t>
+          <t>24. jan.TidTipEkspertOdds20:00Deportivo PereiravsFortaleza FCPrimera A AperturaBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18. jan.TidTipEkspertOdds15:00WolverhamptonvsNewcastlePremier LeagueBettingGuru1.73BettingGuru</t>
+          <t>23. jan.TidTipEkspertOdds19:00Luleå -35,5LuleåvsMalbasLoso1.83Loso</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24. jan.TidTipEkspertOdds20:00Deportivo PereiravsFortaleza FCPrimera A AperturaBettingGuru2.10BettingGuru</t>
+          <t>23. jan.TidTipEkspertOdds19:04Södertälje Kings +11,5Norrköping DolphinsvsSödertälje KingsLoso1.91Loso</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>18. jan.TidTipEkspertOdds15:00BolognavsFiorentinaSerie ABettingGuru1.76BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>18. jan.TidTipEkspertOdds16:00Visby/Roma HK -2.50 i fuldtid (AH)Visby/Roma HKvsTyringe HockeyLoso1.76Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18. jan.TidTipEkspertOdds14:00AIK vinderAIKvsMalbasLoso2.62Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>18. jan.TidTipEkspertOdds16:00Nyköping vinder (ordinær tid)NyköpingvsKungälvs IKLoso2.60Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>18. jan.TidTipEkspertOdds13:00RIG Luleå +30,5RIG LuleåvsEOS LundLoso1.85Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>18. jan.TidTipEkspertOdds15:00AIK vinderNorrköping DolphinsvsAIKLoso2.21Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,31 +453,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24. jan.TidTipEkspertOdds20:00Deportivo PereiravsFortaleza FCPrimera A AperturaBettingGuru2.10BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23. jan.TidTipEkspertOdds19:00Luleå -35,5LuleåvsMalbasLoso1.83Loso</t>
+          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23. jan.TidTipEkspertOdds19:04Södertälje Kings +11,5Norrköping DolphinsvsSödertälje KingsLoso1.91Loso</t>
+          <t>24. jan.TidTipEkspertOdds20:00Deportivo PereiravsFortaleza FCPrimera A AperturaBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +484,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24. jan.TidTipEkspertOdds18:00Over 7.5 mål i fuldtidHV 71vsBrynäsLoso4.10Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24. jan.TidTipEkspertOdds15:00RIG Luleå +23,5RIG LuleåvsMalbasLoso1.84Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,46 +472,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24. jan.TidTipEkspertOdds20:00Deportivo PereiravsFortaleza FCPrimera A AperturaBettingGuru2.10BettingGuru</t>
+          <t>25. jan.TidTipEkspertOdds14:00Piteå vinderPiteåvsLindlövens IFLoso3.60Loso</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>24. jan.TidTipEkspertOdds18:00Over 7.5 mål i fuldtidHV 71vsBrynäsLoso4.10Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>24. jan.TidTipEkspertOdds15:00RIG Luleå +23,5RIG LuleåvsMalbasLoso1.84Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
+          <t>26. jan.TidTipEkspertOdds00:30BoavistavsVasco da GamaCarioca 1. Div. Taca GuanabaraBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,29 +465,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25. jan.TidTipEkspertOdds14:00Piteå vinderPiteåvsLindlövens IFLoso3.60Loso</t>
+          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26. jan.TidTipEkspertOdds20:45VeronavsUdineseSerie ABettingGuru2.60BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26. jan.TidTipEkspertOdds00:30BoavistavsVasco da GamaCarioca 1. Div. Taca GuanabaraBettingGuru2.10BettingGuru</t>
+          <t>27. jan.TidTipEkspertOdds20:30St. PaulivsRB LeipzigBundesligaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
+          <t>26. jan.TidTipEkspertOdds00:30BoavistavsVasco da GamaCarioca 1. Div. Taca GuanabaraBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -496,10 +496,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>27. jan.TidTipEkspertOdds20:30St. PaulivsRB LeipzigBundesligaBettingGuru1.90BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>26. jan.TidTipEkspertOdds00:30BoavistavsVasco da GamaCarioca 1. Div. Taca GuanabaraBettingGuru2.10BettingGuru</t>
+          <t>27. jan.TidTipEkspertOdds20:30St. PaulivsRB LeipzigBundesligaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26. jan.TidTipEkspertOdds20:45VeronavsUdineseSerie ABettingGuru2.60BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>27. jan.TidTipEkspertOdds20:30St. PaulivsRB LeipzigBundesligaBettingGuru1.90BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru2.25BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
+          <t>27. jan.TidTipEkspertOdds20:30St. PaulivsRB LeipzigBundesligaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -512,6 +512,18 @@
         </is>
       </c>
       <c r="B7" t="inlineStr">
+        <is>
+          <t>28. jan.TidTipEkspertOdds23:00Atletico MGvsPalmeirasSerie AFrank Pilantra1.82Frank Pilantra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
+          <t>27. jan.TidTipEkspertOdds20:30St. PaulivsRB LeipzigBundesligaBettingGuru1.90BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru2.25BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27. jan.TidTipEkspertOdds20:30St. PaulivsRB LeipzigBundesligaBettingGuru1.90BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds23:00Atletico MGvsPalmeirasSerie AFrank Pilantra1.82Frank Pilantra</t>
+          <t>27. jan.TidTipEkspertOdds19:04UppsalaUppsalavsNorrköping DolphinsLoso3.45Loso</t>
         </is>
       </c>
     </row>
@@ -524,6 +524,18 @@
         </is>
       </c>
       <c r="B8" t="inlineStr">
+        <is>
+          <t>28. jan.TidTipEkspertOdds23:00Atletico MGvsPalmeirasSerie AFrank Pilantra1.82Frank Pilantra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru1.87BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>27. jan.TidTipEkspertOdds20:30St. PaulivsRB LeipzigBundesligaBettingGuru1.90BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru1.87BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru2.25BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru2.25BettingGuru</t>
+          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27. jan.TidTipEkspertOdds19:04UppsalaUppsalavsNorrköping DolphinsLoso3.45Loso</t>
+          <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -526,18 +526,6 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>28. jan.TidTipEkspertOdds23:00Atletico MGvsPalmeirasSerie AFrank Pilantra1.82Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
+          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
+          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds16:00Brasileirão: Cruzeiro-sæsonspilFrank Pilantra1.83Frank Pilantra</t>
+          <t>29. jan.TidTipEkspertOdds12:00Brasileirão: Depay-sæsonspilFrank Pilantra2.00Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,79 +453,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00Paris SGvsNewcastleChampions LeagueBettingGuru1.83BettingGuru</t>
+          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru1.87BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>28. jan.TidTipEkspertOdds21:00ArsenalvsKairat AlmatyChampions LeagueBettingGuru2.25BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>28. jan.TidTipEkspertOdds21:00Athletic BilbaovsSporting CPChampions LeagueBettingGuru1.85BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>29. jan.TidTipEkspertOdds12:00Brasileirão: Depay-sæsonspilFrank Pilantra2.00Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>28. jan.TidTipEkspertOdds23:00Atletico MGvsPalmeirasSerie AFrank Pilantra1.82Frank Pilantra</t>
+          <t>30. jan.TidTipEkspertOdds01:30Botafogo RJvsCruzeiroSerie AFrank Pilantra1.80Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1. feb.TidTipEkspertOdds20:00FlamengovsCorinthiansSuper CupFrank Pilantra1.81Frank Pilantra</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,29 +453,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30. jan.TidTipEkspertOdds01:30Botafogo RJvsCruzeiroSerie AFrank Pilantra1.80Frank Pilantra</t>
+          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>1. feb.TidTipEkspertOdds20:00FlamengovsCorinthiansSuper CupFrank Pilantra1.81Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>1. feb.TidTipEkspertOdds22:30MirassolvsNovorizontinoPaulista A1BettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
+          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,17 +477,77 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
+          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>31. jan.TidTipEkspertOdds18:04Köping StarsNorrköping DolphinsvsKöping StarsLoso9.75Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>31. jan.TidTipEkspertOdds16:00Clemensnäs vinderClemensnäsvsFalu IFLoso4.10Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>31. jan.TidTipEkspertOdds16:00Nyköping vinderNyköpingvsMörrumsLoso3.30Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>31. jan.TidTipEkspertOdds15:00SträngnäsSträngnäsvsPixboLoso4.80Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>1. feb.TidTipEkspertOdds20:00FlamengovsCorinthiansSuper CupFrank Pilantra1.81Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. feb.TidTipEkspertOdds22:30MirassolvsNovorizontinoPaulista A1BettingGuru1.70BettingGuru</t>
+          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>31. jan.TidTipEkspertOdds23:59Brasileirão – TopscorerBettingGuru17.00BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,77 +477,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
+          <t>1. feb.TidTipEkspertOdds22:30MirassolvsNovorizontinoPaulista A1BettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>1. feb.TidTipEkspertOdds16:00Hanvikens SK -1.50 (AH)Hanvikens SKvsMörrumsLoso1.79Loso</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>31. jan.TidTipEkspertOdds18:04Köping StarsNorrköping DolphinsvsKöping StarsLoso9.75Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>31. jan.TidTipEkspertOdds16:00Clemensnäs vinderClemensnäsvsFalu IFLoso4.10Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31. jan.TidTipEkspertOdds16:00Nyköping vinderNyköpingvsMörrumsLoso3.30Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>31. jan.TidTipEkspertOdds15:00SträngnäsSträngnäsvsPixboLoso4.80Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>1. feb.TidTipEkspertOdds20:00FlamengovsCorinthiansSuper CupFrank Pilantra1.81Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
+          <t>7. feb.TidTipEkspertOdds14:00Rayo VallecanovsReal OviedoLaLigaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>1. feb.TidTipEkspertOdds22:30MirassolvsNovorizontinoPaulista A1BettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,19 +477,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1. feb.TidTipEkspertOdds22:30MirassolvsNovorizontinoPaulista A1BettingGuru1.70BettingGuru</t>
+          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1. feb.TidTipEkspertOdds16:00Hanvikens SK -1.50 (AH)Hanvikens SKvsMörrumsLoso1.79Loso</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. feb.TidTipEkspertOdds22:30MirassolvsNovorizontinoPaulista A1BettingGuru1.70BettingGuru</t>
+          <t>3. feb.TidTipEkspertOdds20:45BolognavsAC MilanSerie ABettingGuru3.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
+          <t>4. feb.TidTipEkspertOdds00:00Athletico ParanaensevsFoz do IguacuParanaense 1. Div. SlutspilBettingGuru1.97BettingGuru</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1. feb.TidTipEkspertOdds20:00FlamengovsCorinthiansSuper CupFrank Pilantra1.81Frank Pilantra</t>
+          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,43 +465,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3. feb.TidTipEkspertOdds20:45BolognavsAC MilanSerie ABettingGuru3.50BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4. feb.TidTipEkspertOdds00:00Athletico ParanaensevsFoz do IguacuParanaense 1. Div. SlutspilBettingGuru1.97BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2. feb.TidTipEkspertOdds21:00SunderlandvsBurnleyPremier LeagueBettingGuru2.12BettingGuru</t>
+          <t>5. feb.TidTipEkspertOdds01:30GremiovsBotafogo RJSerie AFrank Pilantra1.80Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,17 +465,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>5. feb.TidTipEkspertOdds01:30GremiovsBotafogo RJSerie AFrank Pilantra1.80Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5. feb.TidTipEkspertOdds01:30GremiovsBotafogo RJSerie AFrank Pilantra1.80Frank Pilantra</t>
+          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7. feb.TidTipEkspertOdds16:00WolverhamptonvsChelseaPremier LeagueBettingGuru2.15BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds14:00Rayo VallecanovsReal OviedoLaLigaBettingGuru2.05BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
+          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>7. feb.TidTipEkspertOdds16:00WolverhamptonvsChelseaPremier LeagueBettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds16:00WolverhamptonvsChelseaPremier LeagueBettingGuru2.15BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7. feb.TidTipEkspertOdds14:00Rayo VallecanovsReal OviedoLaLigaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
+          <t>7. feb.TidTipEkspertOdds16:00WolverhamptonvsChelseaPremier LeagueBettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
+          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds16:00WolverhamptonvsChelseaPremier LeagueBettingGuru2.15BettingGuru</t>
+          <t>7. feb.TidTipEkspertOdds14:00Rayo VallecanovsReal OviedoLaLigaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds14:00Rayo VallecanovsReal OviedoLaLigaBettingGuru2.05BettingGuru</t>
+          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>7. feb.TidTipEkspertOdds16:04Sloga Uppsala vinderUmeåvsSloga UppsalaLoso2.55Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7. feb.TidTipEkspertOdds18:04Jämtland vinderNorrköping DolphinsvsJämtlandLoso4.10Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds16:00WolverhamptonvsChelseaPremier LeagueBettingGuru2.15BettingGuru</t>
+          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds14:00Rayo VallecanovsReal OviedoLaLigaBettingGuru2.05BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds22:30Velo ClubevsRed Bull BragantinoPaulista A1BettingGuru1.83BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
+          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,43 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>7. feb.TidTipEkspertOdds16:04Sloga Uppsala vinderUmeåvsSloga UppsalaLoso2.55Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>7. feb.TidTipEkspertOdds18:04Jämtland vinderNorrköping DolphinsvsJämtlandLoso4.10Loso</t>
+          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7. feb.TidTipEkspertOdds21:00Real SociedadvsElcheLaLigaBettingGuru1.70BettingGuru</t>
+          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
+          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10. feb.TidTipEkspertOdds21:30Brasileirão: Palmeiras-sæsonspilFrank Pilantra1.50Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds22:30Velo ClubevsRed Bull BragantinoPaulista A1BettingGuru1.83BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
+          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
+          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds22:30Velo ClubevsRed Bull BragantinoPaulista A1BettingGuru1.83BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,17 +525,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8. feb.TidTipEkspertOdds16:00Over 5,5 målVästerviks IKvsKungälvs IKLoso1.80Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>10. feb.TidTipEkspertOdds21:30Brasileirão: Palmeiras-sæsonspilFrank Pilantra1.50Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds22:30Velo ClubevsRed Bull BragantinoPaulista A1BettingGuru1.83BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
+          <t>10. feb.TidTipEkspertOdds20:45LeicestervsSouthamptonChampionshipBettingGuru1.78BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds22:30Velo ClubevsRed Bull BragantinoPaulista A1BettingGuru1.83BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,29 +525,53 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds16:00Over 5,5 målVästerviks IKvsKungälvs IKLoso1.80Loso</t>
+          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8. feb.TidTipEkspertOdds16:00Over 5,5 målVästerviks IKvsKungälvs IKLoso1.80Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8. feb.TidTipEkspertOdds14:00Over 5,5 målPiteåvsNorrtälje IKLoso1.72Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>10. feb.TidTipEkspertOdds21:30Brasileirão: Palmeiras-sæsonspilFrank Pilantra1.50Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds14:00Deportivo AlavesvsGetafeLaLigaBettingGuru2.37BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10. feb.TidTipEkspertOdds20:45LeicestervsSouthamptonChampionshipBettingGuru1.78BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds22:30Velo ClubevsRed Bull BragantinoPaulista A1BettingGuru1.83BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
+          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds22:30Velo ClubevsRed Bull BragantinoPaulista A1BettingGuru1.83BettingGuru</t>
+          <t>10. feb.TidTipEkspertOdds20:45LeicestervsSouthamptonChampionshipBettingGuru1.78BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,55 +525,43 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
+          <t>10. feb.TidTipEkspertOdds21:30Brasileirão: Palmeiras-sæsonspilFrank Pilantra1.50Frank Pilantra</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds16:00Over 5,5 målVästerviks IKvsKungälvs IKLoso1.80Loso</t>
+          <t>11. feb.TidTipEkspertOdds23:00MirassolvsCruzeiroSerie AFrank Pilantra1.90Frank Pilantra</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds14:00Over 5,5 målPiteåvsNorrtälje IKLoso1.72Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10. feb.TidTipEkspertOdds21:30Brasileirão: Palmeiras-sæsonspilFrank Pilantra1.50Frank Pilantra</t>
+          <t>11. feb.TidTipEkspertOdds01:30VitoriavsFlamengoSerie AFrank Pilantra2.00Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
+          <t>10. feb.TidTipEkspertOdds20:45LeicestervsSouthamptonChampionshipBettingGuru1.78BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds22:30Velo ClubevsRed Bull BragantinoPaulista A1BettingGuru1.83BettingGuru</t>
+          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8. feb.TidTipEkspertOdds20:45Paris SGvsMarseilleLigue 1BettingGuru1.95BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,19 +513,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10. feb.TidTipEkspertOdds20:45LeicestervsSouthamptonChampionshipBettingGuru1.78BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds01:30VitoriavsFlamengoSerie AFrank Pilantra2.00Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10. feb.TidTipEkspertOdds21:30Brasileirão: Palmeiras-sæsonspilFrank Pilantra1.50Frank Pilantra</t>
+          <t>11. feb.TidTipEkspertOdds23:00MirassolvsCruzeiroSerie AFrank Pilantra1.90Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -549,19 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds23:00MirassolvsCruzeiroSerie AFrank Pilantra1.90Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11. feb.TidTipEkspertOdds01:30VitoriavsFlamengoSerie AFrank Pilantra2.00Frank Pilantra</t>
+          <t>10. feb.TidTipEkspertOdds21:30Brasileirão: Palmeiras-sæsonspilFrank Pilantra1.50Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9. feb.TidTipEkspertOdds19:00Vejle BoldklubvsFredericia3F SuperligaBettingGuru1.98BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10. feb.TidTipEkspertOdds20:45LeicestervsSouthamptonChampionshipBettingGuru1.78BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,79 +477,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10. feb.TidTipEkspertOdds20:30TottenhamvsNewcastlePremier LeagueBettingGuru1.82BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds19:00Norrköping Dolphins -12,5Norrköping DolphinsvsBraheLoso1.83Loso</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds23:00MirassolvsCruzeiroSerie AFrank Pilantra1.90Frank Pilantra</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>11. feb.TidTipEkspertOdds01:30VitoriavsFlamengoSerie AFrank Pilantra2.00Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>11. feb.TidTipEkspertOdds23:00MirassolvsCruzeiroSerie AFrank Pilantra1.90Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>10. feb.TidTipEkspertOdds21:30Brasileirão: Palmeiras-sæsonspilFrank Pilantra1.50Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,24 +472,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds04:00TigresvsForge FCCONCACAF Champions CupBettingGuru1.70BettingGuru</t>
+          <t>11. feb.TidTipEkspertOdds19:00Norrköping Dolphins -12,5Norrköping DolphinsvsBraheLoso1.83Loso</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds19:00Norrköping Dolphins -12,5Norrköping DolphinsvsBraheLoso1.83Loso</t>
+          <t>11. feb.TidTipEkspertOdds23:00MirassolvsCruzeiroSerie AFrank Pilantra1.90Frank Pilantra</t>
         </is>
       </c>
     </row>
@@ -501,19 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds23:00MirassolvsCruzeiroSerie AFrank Pilantra1.90Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>11. feb.TidTipEkspertOdds01:30VitoriavsFlamengoSerie AFrank Pilantra2.00Frank Pilantra</t>
+          <t>12. feb.TidTipEkspertOdds01:30Sao PaulovsGremioSerie AFrank Pilantra1.91Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,31 +477,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds19:00Norrköping Dolphins -12,5Norrköping DolphinsvsBraheLoso1.83Loso</t>
+          <t>13. feb.TidTipEkspertOdds19:00Luleå -36,5LuleåvsBraheLoso1.83Loso</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11. feb.TidTipEkspertOdds23:00MirassolvsCruzeiroSerie AFrank Pilantra1.90Frank Pilantra</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>frank-pilantra</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>12. feb.TidTipEkspertOdds01:30Sao PaulovsGremioSerie AFrank Pilantra1.91Frank Pilantra</t>
+          <t>13. feb.TidTipEkspertOdds19:04Jämtland -6 AHJämtlandvsSödertälje KingsLoso1.83Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>14. feb.TidTipEkspertOdds23:00Athletic ClubvsTombense FCMineiroBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,29 +465,89 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13. feb.TidTipEkspertOdds19:00Luleå -36,5LuleåvsBraheLoso1.83Loso</t>
+          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14. feb.TidTipEkspertOdds23:00Uniao Recreativa dos TrabalhadoresvsCruzeiroMineiroBettingGuru1.95BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16. feb.TidTipEkspertOdds00:30Botafogo SPvsCapivarianoPaulista A1BettingGuru1.82BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14. feb.TidTipEkspertOdds23:00America MGvsNorth Esporte ClubeMineiroBettingGuru1.82BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>loso</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>13. feb.TidTipEkspertOdds19:04Jämtland -6 AHJämtlandvsSödertälje KingsLoso1.83Loso</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00Athletic ClubvsTombense FCMineiroBettingGuru2.05BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
+          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
+          <t>14. feb.TidTipEkspertOdds23:00America MGvsNorth Esporte ClubeMineiroBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
+          <t>14. feb.TidTipEkspertOdds23:00Athletic ClubvsTombense FCMineiroBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00Uniao Recreativa dos TrabalhadoresvsCruzeiroMineiroBettingGuru1.95BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,19 +537,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00America MGvsNorth Esporte ClubeMineiroBettingGuru1.82BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13. feb.TidTipEkspertOdds19:04Jämtland -6 AHJämtlandvsSödertälje KingsLoso1.83Loso</t>
+          <t>14. feb.TidTipEkspertOdds23:00Uniao Recreativa dos TrabalhadoresvsCruzeiroMineiroBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30SantosvsVelo ClubePaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00Athletic ClubvsTombense FCMineiroBettingGuru2.05BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
+          <t>14. feb.TidTipEkspertOdds23:00Athletic ClubvsTombense FCMineiroBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30Botafogo SPvsCapivarianoPaulista A1BettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30Botafogo SPvsCapivarianoPaulista A1BettingGuru1.82BettingGuru</t>
+          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,55 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>14. feb.TidTipEkspertOdds23:00Uniao Recreativa dos TrabalhadoresvsCruzeiroMineiroBettingGuru1.95BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14. feb.TidTipEkspertOdds16:00Over 5.5 målWings HC ArlandavsKalix UHCLoso2.01Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14. feb.TidTipEkspertOdds16:00Väsby IK HK -1.50 (AH)Väsby IK HKvsKiruna IFLoso2.18Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14. feb.TidTipEkspertOdds16:00Over 5,5 målVästerviks IKvsGrums IKLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30SantosvsVelo ClubePaulista A1BettingGuru2.15BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds14:00Maniema UnionvsNairobi UnitedCAF Confederation Cup Gr. BBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00America MGvsNorth Esporte ClubeMineiroBettingGuru1.82BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds18:45FenerbahcevsNottingham F.Europa League SlutspilBettingGuru2.34BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
+          <t>14. feb.TidTipEkspertOdds23:00Uniao Recreativa dos TrabalhadoresvsCruzeiroMineiroBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00Athletic ClubvsTombense FCMineiroBettingGuru2.05BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
+          <t>14. feb.TidTipEkspertOdds23:00Athletic ClubvsTombense FCMineiroBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>14. feb.TidTipEkspertOdds23:00America MGvsNorth Esporte ClubeMineiroBettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -561,43 +561,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00Uniao Recreativa dos TrabalhadoresvsCruzeiroMineiroBettingGuru1.95BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds16:00Over 5.5 målWings HC ArlandavsKalix UHCLoso2.01Loso</t>
+          <t>16. feb.TidTipEkspertOdds00:30SantosvsVelo ClubePaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds16:00Väsby IK HK -1.50 (AH)Väsby IK HKvsKiruna IFLoso2.18Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>14. feb.TidTipEkspertOdds16:00Over 5,5 målVästerviks IKvsGrums IKLoso1.85Loso</t>
+          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30SantosvsVelo ClubePaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds14:00Maniema UnionvsNairobi UnitedCAF Confederation Cup Gr. BBettingGuru1.80BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19. feb.TidTipEkspertOdds18:45FenerbahcevsNottingham F.Europa League SlutspilBettingGuru2.34BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00Uniao Recreativa dos TrabalhadoresvsCruzeiroMineiroBettingGuru1.95BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds14:00Maniema UnionvsNairobi UnitedCAF Confederation Cup Gr. BBettingGuru1.80BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds18:45FenerbahcevsNottingham F.Europa League SlutspilBettingGuru2.34BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30Botafogo SPvsCapivarianoPaulista A1BettingGuru1.82BettingGuru</t>
+          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00Athletic ClubvsTombense FCMineiroBettingGuru2.05BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -549,43 +549,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>14. feb.TidTipEkspertOdds23:00America MGvsNorth Esporte ClubeMineiroBettingGuru1.82BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30Botafogo SPvsCapivarianoPaulista A1BettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>16. feb.TidTipEkspertOdds00:30SantosvsVelo ClubePaulista A1BettingGuru2.15BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
+          <t>15. feb.TidTipEkspertOdds14:00Lindlöven -3,5Lindlövens IFvsClemensnäsLoso1.80Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30SantosvsVelo ClubePaulista A1BettingGuru2.15BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds18:45FenerbahcevsNottingham F.Europa League SlutspilBettingGuru2.34BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30SantosvsVelo ClubePaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30Botafogo SPvsCapivarianoPaulista A1BettingGuru1.82BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds14:00Maniema UnionvsNairobi UnitedCAF Confederation Cup Gr. BBettingGuru1.80BettingGuru</t>
+          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19. feb.TidTipEkspertOdds18:45FenerbahcevsNottingham F.Europa League SlutspilBettingGuru2.34BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,43 +525,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15. feb.TidTipEkspertOdds17:30ArsenalvsWiganFA CupBettingGuru2.50BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
+          <t>16. feb.TidTipEkspertOdds19:04HögsboHögsbovsBC LuleåLoso6.10Loso</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30Botafogo SPvsCapivarianoPaulista A1BettingGuru1.82BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>15. feb.TidTipEkspertOdds14:00Lindlöven -3,5Lindlövens IFvsClemensnäsLoso1.80Loso</t>
+          <t>16. feb.TidTipEkspertOdds19:04Högsbo +13,5HögsbovsBC LuleåLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30SantosvsVelo ClubePaulista A1BettingGuru2.15BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,79 +477,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16. feb.TidTipEkspertOdds00:30Botafogo SPvsCapivarianoPaulista A1BettingGuru1.82BettingGuru</t>
+          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17. feb.TidTipEkspertOdds01:30Montevideo City TorquevsJuventud de las PiedrasLiga AUF Uruguaya AperturaBettingGuru1.95BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16. feb.TidTipEkspertOdds00:30Red Bull BragantinovsNovorizontinoPaulista A1BettingGuru2.15BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>16. feb.TidTipEkspertOdds19:04HögsboHögsbovsBC LuleåLoso6.10Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>16. feb.TidTipEkspertOdds19:04Högsbo +13,5HögsbovsBC LuleåLoso1.85Loso</t>
+          <t>17. feb.TidTipEkspertOdds19:04Over 199,5 pointUmeåvsJämtlandLoso4.40Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17. feb.TidTipEkspertOdds19:04Over 199,5 pointUmeåvsJämtlandLoso4.40Loso</t>
+          <t>18. feb.TidTipEkspertOdds19:00Södertälje vinderSödertäljevsLuleåLoso5.00Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19. feb.TidTipEkspertOdds18:45FenerbahcevsNottingham F.Europa League SlutspilBettingGuru2.34BettingGuru</t>
+          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,31 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>18. feb.TidTipEkspertOdds18:45Qarabag FKvsNewcastleChampions League SlutspilBettingGuru2.05BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>18. feb.TidTipEkspertOdds19:00Södertälje vinderSödertäljevsLuleåLoso5.00Loso</t>
+          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19. feb.TidTipEkspertOdds22:002 de MayovsRecoletaDivision Profesional – AperturaBettingGuru1.77BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -466,6 +466,18 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20. feb.TidTipEkspertOdds19:00Over 5,5 målHanvikens SKvsVästerviks IKLoso1.72Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20. feb.TidTipEkspertOdds19:04Over 177,5BoråsvsHögsboLoso1.85Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,31 +477,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds16:00Aston VillavsLeedsPremier LeagueBettingGuru2.02BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20. feb.TidTipEkspertOdds19:00Over 5,5 målHanvikens SKvsVästerviks IKLoso1.72Loso</t>
+          <t>22. feb.TidTipEkspertOdds15:00Crystal PalacevsWolverhamptonPremier LeagueBettingGuru2.33BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>loso</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>20. feb.TidTipEkspertOdds19:04Over 177,5BoråsvsHögsboLoso1.85Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20. feb.TidTipEkspertOdds19:00Over 5,5 målHanvikens SKvsVästerviks IKLoso1.72Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds16:00Aston VillavsLeedsPremier LeagueBettingGuru2.02BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22. feb.TidTipEkspertOdds15:00Crystal PalacevsWolverhamptonPremier LeagueBettingGuru2.33BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds16:00Aston VillavsLeedsPremier LeagueBettingGuru2.02BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,31 +501,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
+          <t>26. feb.TidTipEkspertOdds21:00Lech PoznanvsKuPSEuropa Conference League SlutspilBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20. feb.TidTipEkspertOdds19:04Over 177,5BoråsvsHögsboLoso1.85Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20. feb.TidTipEkspertOdds19:00Over 5,5 målHanvikens SKvsVästerviks IKLoso1.72Loso</t>
+          <t>22. feb.TidTipEkspertOdds15:00Crystal PalacevsWolverhamptonPremier LeagueBettingGuru2.33BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
+          <t>26. feb.TidTipEkspertOdds21:00Lech PoznanvsKuPSEuropa Conference League SlutspilBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds16:00Aston VillavsLeedsPremier LeagueBettingGuru2.02BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds16:00Aston VillavsLeedsPremier LeagueBettingGuru2.02BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26. feb.TidTipEkspertOdds21:00Lech PoznanvsKuPSEuropa Conference League SlutspilBettingGuru1.95BettingGuru</t>
+          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
         </is>
       </c>
     </row>
@@ -514,6 +514,30 @@
       <c r="B7" t="inlineStr">
         <is>
           <t>22. feb.TidTipEkspertOdds15:00Crystal PalacevsWolverhamptonPremier LeagueBettingGuru2.33BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21. feb.TidTipEkspertOdds16:00Over 5,5 målÖrnsköldsvik HFvsWings HC ArlandaLoso1.70Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21. feb.TidTipEkspertOdds16:00Forshaga -1,5ForshagavsStrömsbro IFLoso2.10Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds16:00ChelseavsBurnleyPremier LeagueBettingGuru2.10BettingGuru</t>
+          <t>26. feb.TidTipEkspertOdds21:00Lech PoznanvsKuPSEuropa Conference League SlutspilBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,79 +465,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26. feb.TidTipEkspertOdds21:00Lech PoznanvsKuPSEuropa Conference League SlutspilBettingGuru1.95BettingGuru</t>
+          <t>22. feb.TidTipEkspertOdds15:00Crystal PalacevsWolverhamptonPremier LeagueBettingGuru2.33BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds16:00Aston VillavsLeedsPremier LeagueBettingGuru2.02BettingGuru</t>
+          <t>22. feb.TidTipEkspertOdds15:00Betbuilder: Kalix sejr + over 5,5 målKalix UHCvsSurahammars IFLoso2.90Loso</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21. feb.TidTipEkspertOdds22:00O'HigginsvsColo ColoPrimera DivisionBettingGuru2.23BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>21. feb.TidTipEkspertOdds14:00OBvsF.C. København3F SuperligaBettingGuru2.05BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bettingguru</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>22. feb.TidTipEkspertOdds15:00Crystal PalacevsWolverhamptonPremier LeagueBettingGuru2.33BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>21. feb.TidTipEkspertOdds16:00Over 5,5 målÖrnsköldsvik HFvsWings HC ArlandaLoso1.70Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>21. feb.TidTipEkspertOdds16:00Forshaga -1,5ForshagavsStrömsbro IFLoso2.10Loso</t>
+          <t>22. feb.TidTipEkspertOdds15:00Over 14 hjørne (3-vejs)ElfsborgvsHelsingborgLoso7.00Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26. feb.TidTipEkspertOdds21:00Lech PoznanvsKuPSEuropa Conference League SlutspilBettingGuru1.95BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,31 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22. feb.TidTipEkspertOdds15:00Crystal PalacevsWolverhamptonPremier LeagueBettingGuru2.33BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>22. feb.TidTipEkspertOdds15:00Betbuilder: Kalix sejr + over 5,5 målKalix UHCvsSurahammars IFLoso2.90Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>22. feb.TidTipEkspertOdds15:00Over 14 hjørne (3-vejs)ElfsborgvsHelsingborgLoso7.00Loso</t>
+          <t>26. feb.TidTipEkspertOdds21:00Lech PoznanvsKuPSEuropa Conference League SlutspilBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25. feb.TidTipEkspertOdds19:00Mariestad BoIS HC -2.50 (AH)Mariestad BoIS HCvsKungälvs IKLoso1.77Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>frank-pilantra</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>27. feb.TidTipEkspertOdds01:30FlamengovsLanusRecopa SudamericanaFrank Pilantra1.72Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,19 +489,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>loso</t>
+          <t>frank-pilantra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25. feb.TidTipEkspertOdds19:00Mariestad BoIS HC -2.50 (AH)Mariestad BoIS HCvsKungälvs IKLoso1.77Loso</t>
+          <t>26. feb.TidTipEkspertOdds23:00SantosvsVasco da GamaSerie AFrank Pilantra1.89Frank Pilantra</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26. feb.TidTipEkspertOdds21:00Lech PoznanvsKuPSEuropa Conference League SlutspilBettingGuru1.95BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds20:45MarseillevsLyonLigue 1BettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,29 +489,53 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
+          <t>28. feb.TidTipEkspertOdds14:00Rayo VallecanovsAthletic BilbaoLaLigaBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>bettingguru</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26. feb.TidTipEkspertOdds23:00SantosvsVasco da GamaSerie AFrank Pilantra1.89Frank Pilantra</t>
+          <t>1. mar.TidTipEkspertOdds15:00SassuolovsAtalantaSerie ABettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>bettingguru</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27. feb.TidTipEkspertOdds18:00Visby/Roma HK -2.50 i fuldtid (AH)Visby/Roma HKvsGrums IKLoso1.61Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>frank-pilantra</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>27. feb.TidTipEkspertOdds01:30FlamengovsLanusRecopa SudamericanaFrank Pilantra1.72Frank Pilantra</t>
         </is>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds20:45MarseillevsLyonLigue 1BettingGuru1.85BettingGuru</t>
+          <t>28. feb.TidTipEkspertOdds14:00Rayo VallecanovsAthletic BilbaoLaLigaBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>28. feb.TidTipEkspertOdds14:00Rayo VallecanovsAthletic BilbaoLaLigaBettingGuru1.95BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds15:00SassuolovsAtalantaSerie ABettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds15:00SassuolovsAtalantaSerie ABettingGuru1.88BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds20:45MarseillevsLyonLigue 1BettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,19 +525,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27. feb.TidTipEkspertOdds18:00Visby/Roma HK -2.50 i fuldtid (AH)Visby/Roma HKvsGrums IKLoso1.61Loso</t>
+          <t>27. feb.TidTipEkspertOdds19:00Kiruna IF vinderKiruna IFvsForshagaLoso5.50Loso</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>frank-pilantra</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27. feb.TidTipEkspertOdds01:30FlamengovsLanusRecopa SudamericanaFrank Pilantra1.72Frank Pilantra</t>
+          <t>27. feb.TidTipEkspertOdds18:00Visby/Roma HK -2.50 i fuldtid (AH)Visby/Roma HKvsGrums IKLoso1.61Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>27. feb.TidTipEkspertOdds19:00Östersund +26,5LuleåvsÖstersundLoso1.80Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28. feb.TidTipEkspertOdds14:00Rayo VallecanovsAthletic BilbaoLaLigaBettingGuru1.95BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds15:00SassuolovsAtalantaSerie ABettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds15:00SassuolovsAtalantaSerie ABettingGuru1.88BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds20:45MarseillevsLyonLigue 1BettingGuru1.85BettingGuru</t>
+          <t>28. feb.TidTipEkspertOdds14:00Rayo VallecanovsAthletic BilbaoLaLigaBettingGuru1.95BettingGuru</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds20:45MarseillevsLyonLigue 1BettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27. feb.TidTipEkspertOdds19:00Kiruna IF vinderKiruna IFvsForshagaLoso5.50Loso</t>
+          <t>28. feb.TidTipEkspertOdds16:00Over 7.5 målJärfälla HCvsMariestad BoIS HCLoso2.02Loso</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27. feb.TidTipEkspertOdds18:00Visby/Roma HK -2.50 i fuldtid (AH)Visby/Roma HKvsGrums IKLoso1.61Loso</t>
+          <t>28. feb.TidTipEkspertOdds15:15Over 7.5 mål i fuldtidTimråvsHV 71Loso5.10Loso</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27. feb.TidTipEkspertOdds19:00Östersund +26,5LuleåvsÖstersundLoso1.80Loso</t>
+          <t>28. feb.TidTipEkspertOdds16:00Dalen -1,5HC DalenvsMörrumsLoso2.00Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>28. feb.TidTipEkspertOdds16:00Karlskrona -2,5Kungälvs IKvsKarlskrona HKLoso1.75Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>28. feb.TidTipEkspertOdds16:00Hanvikens SK -2.50 i fuldtid (AH)Hanvikens SKvsGrums IKLoso1.97Loso</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>loso</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>28. feb.TidTipEkspertOdds15:00Over 164,5 pointBlackebergvsSollentunaLoso1.83Loso</t>
         </is>
       </c>
     </row>

--- a/betting_tips.xlsx
+++ b/betting_tips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds15:00SassuolovsAtalantaSerie ABettingGuru1.88BettingGuru</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds15:00SassuolovsAtalantaSerie ABettingGuru1.88BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds17:00ViborgvsFC Nordsjælland3F SuperligaBettingGuru1.62BettingGuru</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds15:00Paris FCvsNiceLigue 1BettingGuru1.92BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds20:45MarseillevsLyonLigue 1BettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
@@ -501,91 +501,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28. feb.TidTipEkspertOdds14:00Rayo VallecanovsAthletic BilbaoLaLigaBettingGuru1.95BettingGuru</t>
+          <t>1. mar.TidTipEkspertOdds20:00PalmeirasvsSao PauloPaulista A1 SlutspilBettingGuru1.85BettingGuru</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bettingguru</t>
+          <t>loso</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1. mar.TidTipEkspertOdds20:45MarseillevsLyonLigue 1BettingGuru1.85BettingGuru</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>28. feb.TidTipEkspertOdds16:00Over 7.5 målJärfälla HCvsMariestad BoIS HCLoso2.02Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>28. feb.TidTipEkspertOdds15:15Over 7.5 mål i fuldtidTimråvsHV 71Loso5.10Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>28. feb.TidTipEkspertOdds16:00Dalen -1,5HC DalenvsMörrumsLoso2.00Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>28. feb.TidTipEkspertOdds16:00Karlskrona -2,5Kungälvs IKvsKarlskrona HKLoso1.75Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>28. feb.TidTipEkspertOdds16:00Hanvikens SK -2.50 i fuldtid (AH)Hanvikens SKvsGrums IKLoso1.97Loso</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>loso</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>28. feb.TidTipEkspertOdds15:00Over 164,5 pointBlackebergvsSollentunaLoso1.83Loso</t>
+          <t>1. mar.TidTipEkspertOdds13:00Falkenberg +1 AHBrommapojkarnavsFalkenbergs FFLoso1.83Loso</t>
         </is>
       </c>
     </row>
